--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value39.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value39.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.710781165220147</v>
+        <v>1.857701778411865</v>
       </c>
       <c r="B1">
-        <v>0.8632186353364997</v>
+        <v>2.242764472961426</v>
       </c>
       <c r="C1">
-        <v>1.180868637739537</v>
+        <v>3.030485868453979</v>
       </c>
       <c r="D1">
-        <v>2.916095152922483</v>
+        <v>6.165651321411133</v>
       </c>
       <c r="E1">
-        <v>3.377813957929534</v>
+        <v>2.685576677322388</v>
       </c>
     </row>
   </sheetData>
